--- a/Bilheteria Mundial trabalho r 2018.xlsx
+++ b/Bilheteria Mundial trabalho r 2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="431">
   <si>
     <t>Week</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Dec. 28–Jan. 3</t>
   </si>
   <si>
-    <t>$343,404,540</t>
-  </si>
-  <si>
     <t>-17.0%</t>
   </si>
   <si>
@@ -59,18 +56,12 @@
     <t>Dec. 21–27</t>
   </si>
   <si>
-    <t>$413,471,421</t>
-  </si>
-  <si>
     <t>+129.0%</t>
   </si>
   <si>
     <t>Dec. 14–20</t>
   </si>
   <si>
-    <t>$180,550,837</t>
-  </si>
-  <si>
     <t>+53.0%</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Dec. 7–13</t>
   </si>
   <si>
-    <t>$118,024,971</t>
-  </si>
-  <si>
     <t>-25.9%</t>
   </si>
   <si>
@@ -92,27 +80,18 @@
     <t>Nov. 30–Dec. 6</t>
   </si>
   <si>
-    <t>$159,339,710</t>
-  </si>
-  <si>
     <t>-40.2%</t>
   </si>
   <si>
     <t>Nov. 23–29</t>
   </si>
   <si>
-    <t>$266,370,293</t>
-  </si>
-  <si>
     <t>-15.7%</t>
   </si>
   <si>
     <t>Nov. 16–22</t>
   </si>
   <si>
-    <t>$315,931,717</t>
-  </si>
-  <si>
     <t>+39.0%</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>+17.7%</t>
   </si>
   <si>
-    <t>$227,237,896</t>
-  </si>
-  <si>
     <t>+16.2%</t>
   </si>
   <si>
@@ -137,9 +113,6 @@
     <t>Nov. 2–8</t>
   </si>
   <si>
-    <t>$195,580,082</t>
-  </si>
-  <si>
     <t>+32.1%</t>
   </si>
   <si>
@@ -152,9 +125,6 @@
     <t>-36.5%</t>
   </si>
   <si>
-    <t>$148,039,281</t>
-  </si>
-  <si>
     <t>-31.7%</t>
   </si>
   <si>
@@ -164,18 +134,12 @@
     <t>Oct. 19–25</t>
   </si>
   <si>
-    <t>$216,847,361</t>
-  </si>
-  <si>
     <t>+17.8%</t>
   </si>
   <si>
     <t>Oct. 12–18</t>
   </si>
   <si>
-    <t>$184,035,791</t>
-  </si>
-  <si>
     <t>-27.3%</t>
   </si>
   <si>
@@ -188,18 +152,12 @@
     <t>+97.1%</t>
   </si>
   <si>
-    <t>$253,288,138</t>
-  </si>
-  <si>
     <t>+80.9%</t>
   </si>
   <si>
     <t>Sep. 28–Oct. 4</t>
   </si>
   <si>
-    <t>$140,036,101</t>
-  </si>
-  <si>
     <t>+12.0%</t>
   </si>
   <si>
@@ -209,9 +167,6 @@
     <t>Sep. 21–27</t>
   </si>
   <si>
-    <t>$125,091,481</t>
-  </si>
-  <si>
     <t>-15.9%</t>
   </si>
   <si>
@@ -221,9 +176,6 @@
     <t>Sep. 14–20</t>
   </si>
   <si>
-    <t>$148,644,756</t>
-  </si>
-  <si>
     <t>-7.8%</t>
   </si>
   <si>
@@ -233,9 +185,6 @@
     <t>Sep. 7–13</t>
   </si>
   <si>
-    <t>$161,260,520</t>
-  </si>
-  <si>
     <t>+6.1%</t>
   </si>
   <si>
@@ -245,9 +194,6 @@
     <t>Aug. 31–Sep. 6</t>
   </si>
   <si>
-    <t>$151,977,097</t>
-  </si>
-  <si>
     <t>+1.3%</t>
   </si>
   <si>
@@ -260,18 +206,12 @@
     <t>-26.2%</t>
   </si>
   <si>
-    <t>$149,963,122</t>
-  </si>
-  <si>
     <t>-23.1%</t>
   </si>
   <si>
     <t>Aug. 17–23</t>
   </si>
   <si>
-    <t>$195,009,380</t>
-  </si>
-  <si>
     <t>-13.9%</t>
   </si>
   <si>
@@ -281,9 +221,6 @@
     <t>+1.4%</t>
   </si>
   <si>
-    <t>$226,416,589</t>
-  </si>
-  <si>
     <t>+3.6%</t>
   </si>
   <si>
@@ -296,9 +233,6 @@
     <t>-14.3%</t>
   </si>
   <si>
-    <t>$218,510,694</t>
-  </si>
-  <si>
     <t>-11.6%</t>
   </si>
   <si>
@@ -308,18 +242,12 @@
     <t>Jul. 27–Aug. 2</t>
   </si>
   <si>
-    <t>$247,147,898</t>
-  </si>
-  <si>
     <t>-8.7%</t>
   </si>
   <si>
     <t>Jul. 20–26</t>
   </si>
   <si>
-    <t>$270,640,633</t>
-  </si>
-  <si>
     <t>+6.5%</t>
   </si>
   <si>
@@ -332,9 +260,6 @@
     <t>-8.4%</t>
   </si>
   <si>
-    <t>$254,253,741</t>
-  </si>
-  <si>
     <t>Hotel Transylvania 3</t>
   </si>
   <si>
@@ -344,9 +269,6 @@
     <t>-11.1%</t>
   </si>
   <si>
-    <t>$278,429,342</t>
-  </si>
-  <si>
     <t>-10.7%</t>
   </si>
   <si>
@@ -356,9 +278,6 @@
     <t>Jun. 29–Jul. 5</t>
   </si>
   <si>
-    <t>$311,656,736</t>
-  </si>
-  <si>
     <t>-23.6%</t>
   </si>
   <si>
@@ -368,18 +287,12 @@
     <t>Jun. 22–28</t>
   </si>
   <si>
-    <t>$407,994,609</t>
-  </si>
-  <si>
     <t>+1.6%</t>
   </si>
   <si>
     <t>Jun. 15–21</t>
   </si>
   <si>
-    <t>$401,428,059</t>
-  </si>
-  <si>
     <t>+121.8%</t>
   </si>
   <si>
@@ -389,9 +302,6 @@
     <t>Jun. 8–14</t>
   </si>
   <si>
-    <t>$181,013,776</t>
-  </si>
-  <si>
     <t>+14.6%</t>
   </si>
   <si>
@@ -401,9 +311,6 @@
     <t>Jun. 1–7</t>
   </si>
   <si>
-    <t>$157,928,172</t>
-  </si>
-  <si>
     <t>-42.9%</t>
   </si>
   <si>
@@ -416,18 +323,12 @@
     <t>-2.2%</t>
   </si>
   <si>
-    <t>$276,354,504</t>
-  </si>
-  <si>
     <t>-2.4%</t>
   </si>
   <si>
     <t>May 18–24</t>
   </si>
   <si>
-    <t>$283,026,511</t>
-  </si>
-  <si>
     <t>+54.9%</t>
   </si>
   <si>
@@ -437,9 +338,6 @@
     <t>May 11–17</t>
   </si>
   <si>
-    <t>$182,747,452</t>
-  </si>
-  <si>
     <t>-18.6%</t>
   </si>
   <si>
@@ -449,18 +347,12 @@
     <t>May 4–10</t>
   </si>
   <si>
-    <t>$224,419,461</t>
-  </si>
-  <si>
     <t>-46.1%</t>
   </si>
   <si>
     <t>Apr. 27–May3</t>
   </si>
   <si>
-    <t>$416,288,992</t>
-  </si>
-  <si>
     <t>+158.6%</t>
   </si>
   <si>
@@ -470,9 +362,6 @@
     <t>-19.4%</t>
   </si>
   <si>
-    <t>$161,006,014</t>
-  </si>
-  <si>
     <t>-18.7%</t>
   </si>
   <si>
@@ -482,9 +371,6 @@
     <t>Apr. 13–19</t>
   </si>
   <si>
-    <t>$198,040,226</t>
-  </si>
-  <si>
     <t>-8.3%</t>
   </si>
   <si>
@@ -494,9 +380,6 @@
     <t>Apr. 6–12</t>
   </si>
   <si>
-    <t>$215,954,885</t>
-  </si>
-  <si>
     <t>+5.3%</t>
   </si>
   <si>
@@ -506,9 +389,6 @@
     <t>+3.3%</t>
   </si>
   <si>
-    <t>$205,105,965</t>
-  </si>
-  <si>
     <t>+2.1%</t>
   </si>
   <si>
@@ -518,9 +398,6 @@
     <t>Mar. 23–29</t>
   </si>
   <si>
-    <t>$200,840,684</t>
-  </si>
-  <si>
     <t>+10.1%</t>
   </si>
   <si>
@@ -530,9 +407,6 @@
     <t>Mar. 16–22</t>
   </si>
   <si>
-    <t>$182,378,612</t>
-  </si>
-  <si>
     <t>-7.5%</t>
   </si>
   <si>
@@ -542,45 +416,30 @@
     <t>Mar. 9–15</t>
   </si>
   <si>
-    <t>$197,174,196</t>
-  </si>
-  <si>
     <t>-0.7%</t>
   </si>
   <si>
     <t>Mar. 2–8</t>
   </si>
   <si>
-    <t>$198,504,528</t>
-  </si>
-  <si>
     <t>-22.4%</t>
   </si>
   <si>
     <t>Feb. 23–Mar. 1</t>
   </si>
   <si>
-    <t>$255,705,696</t>
-  </si>
-  <si>
     <t>-39.0%</t>
   </si>
   <si>
     <t>Feb. 16–22</t>
   </si>
   <si>
-    <t>$419,338,854</t>
-  </si>
-  <si>
     <t>+108.2%</t>
   </si>
   <si>
     <t>Feb. 9–15</t>
   </si>
   <si>
-    <t>$201,404,371</t>
-  </si>
-  <si>
     <t>+55.2%</t>
   </si>
   <si>
@@ -593,9 +452,6 @@
     <t>-32.5%</t>
   </si>
   <si>
-    <t>$129,767,460</t>
-  </si>
-  <si>
     <t>-30.8%</t>
   </si>
   <si>
@@ -605,9 +461,6 @@
     <t>Jan. 26–Feb. 1</t>
   </si>
   <si>
-    <t>$187,462,868</t>
-  </si>
-  <si>
     <t>+1.9%</t>
   </si>
   <si>
@@ -620,27 +473,18 @@
     <t>-26.0%</t>
   </si>
   <si>
-    <t>$184,045,150</t>
-  </si>
-  <si>
     <t>-21.4%</t>
   </si>
   <si>
     <t>Jan. 12–18</t>
   </si>
   <si>
-    <t>$234,079,943</t>
-  </si>
-  <si>
     <t>+6.0%</t>
   </si>
   <si>
     <t>Jan. 5–11</t>
   </si>
   <si>
-    <t>$220,765,209</t>
-  </si>
-  <si>
     <t>-34.8%</t>
   </si>
   <si>
@@ -650,9 +494,6 @@
     <t>December 27–30</t>
   </si>
   <si>
-    <t>$1,607,933</t>
-  </si>
-  <si>
     <t>+60.5%</t>
   </si>
   <si>
@@ -662,54 +503,36 @@
     <t>December 20–23</t>
   </si>
   <si>
-    <t>$1,002,133</t>
-  </si>
-  <si>
     <t>-36.7%</t>
   </si>
   <si>
     <t>December 13–16</t>
   </si>
   <si>
-    <t>$1,583,751</t>
-  </si>
-  <si>
     <t>+50.8%</t>
   </si>
   <si>
     <t>December 6–9</t>
   </si>
   <si>
-    <t>$1,050,189</t>
-  </si>
-  <si>
     <t>-34.6%</t>
   </si>
   <si>
     <t>November 29–December 2</t>
   </si>
   <si>
-    <t>$1,604,585</t>
-  </si>
-  <si>
     <t>+23.3%</t>
   </si>
   <si>
     <t>November 22–25</t>
   </si>
   <si>
-    <t>$1,301,667</t>
-  </si>
-  <si>
     <t>-39.2%</t>
   </si>
   <si>
     <t>November 15–18</t>
   </si>
   <si>
-    <t>$2,141,512</t>
-  </si>
-  <si>
     <t>+48.7%</t>
   </si>
   <si>
@@ -719,33 +542,21 @@
     <t>November 8–11</t>
   </si>
   <si>
-    <t>$1,439,324</t>
-  </si>
-  <si>
     <t>November 1–4</t>
   </si>
   <si>
-    <t>$1,678,912</t>
-  </si>
-  <si>
     <t>+37.9%</t>
   </si>
   <si>
     <t>October 25–28</t>
   </si>
   <si>
-    <t>$1,217,108</t>
-  </si>
-  <si>
     <t>+17.2%</t>
   </si>
   <si>
     <t>October 18–21</t>
   </si>
   <si>
-    <t>$1,038,574</t>
-  </si>
-  <si>
     <t>-37.5%</t>
   </si>
   <si>
@@ -755,27 +566,18 @@
     <t>October 11–14</t>
   </si>
   <si>
-    <t>$1,662,754</t>
-  </si>
-  <si>
     <t>-19.0%</t>
   </si>
   <si>
     <t>October 4–7</t>
   </si>
   <si>
-    <t>$2,051,423</t>
-  </si>
-  <si>
     <t>+42.5%</t>
   </si>
   <si>
     <t>September 27–30</t>
   </si>
   <si>
-    <t>$1,439,500</t>
-  </si>
-  <si>
     <t>+4.9%</t>
   </si>
   <si>
@@ -785,69 +587,45 @@
     <t>September 20–23</t>
   </si>
   <si>
-    <t>$1,372,920</t>
-  </si>
-  <si>
     <t>-33.7%</t>
   </si>
   <si>
     <t>September 13–16</t>
   </si>
   <si>
-    <t>$2,071,789</t>
-  </si>
-  <si>
     <t>-17.9%</t>
   </si>
   <si>
     <t>September 6–9</t>
   </si>
   <si>
-    <t>$2,524,481</t>
-  </si>
-  <si>
     <t>+45.6%</t>
   </si>
   <si>
     <t>August 30–September 2</t>
   </si>
   <si>
-    <t>$1,731,799</t>
-  </si>
-  <si>
     <t>El Angel</t>
   </si>
   <si>
     <t>August 23–26</t>
   </si>
   <si>
-    <t>$2,501,645</t>
-  </si>
-  <si>
     <t>-22.1%</t>
   </si>
   <si>
     <t>August 16–19</t>
   </si>
   <si>
-    <t>$3,211,658</t>
-  </si>
-  <si>
     <t>August 9–12</t>
   </si>
   <si>
-    <t>$3,233,726</t>
-  </si>
-  <si>
     <t>+7.4%</t>
   </si>
   <si>
     <t>August 2–5</t>
   </si>
   <si>
-    <t>$3,012,130</t>
-  </si>
-  <si>
     <t>-48.6%</t>
   </si>
   <si>
@@ -857,36 +635,24 @@
     <t>July 26–29</t>
   </si>
   <si>
-    <t>$5,857,197</t>
-  </si>
-  <si>
     <t>Hotel Transylvania 3: Summer Vacation</t>
   </si>
   <si>
     <t>July 19–22</t>
   </si>
   <si>
-    <t>$6,558,204</t>
-  </si>
-  <si>
     <t>+19.1%</t>
   </si>
   <si>
     <t>July 12–15</t>
   </si>
   <si>
-    <t>$5,505,784</t>
-  </si>
-  <si>
     <t>+8.7%</t>
   </si>
   <si>
     <t>July 5–8</t>
   </si>
   <si>
-    <t>$5,063,540</t>
-  </si>
-  <si>
     <t>+46.0%</t>
   </si>
   <si>
@@ -896,84 +662,54 @@
     <t>June 28–July 1</t>
   </si>
   <si>
-    <t>$3,467,343</t>
-  </si>
-  <si>
     <t>-30.1%</t>
   </si>
   <si>
     <t>June 21–24</t>
   </si>
   <si>
-    <t>$4,956,788</t>
-  </si>
-  <si>
     <t>+33.9%</t>
   </si>
   <si>
     <t>June 14–17</t>
   </si>
   <si>
-    <t>$3,703,330</t>
-  </si>
-  <si>
     <t>+1,054.2%</t>
   </si>
   <si>
     <t>May 31–June 3</t>
   </si>
   <si>
-    <t>$2,155,647</t>
-  </si>
-  <si>
     <t>May 24–27</t>
   </si>
   <si>
-    <t>$3,156,047</t>
-  </si>
-  <si>
     <t>May 17–20</t>
   </si>
   <si>
-    <t>$3,226,681</t>
-  </si>
-  <si>
     <t>+16.3%</t>
   </si>
   <si>
     <t>May 10–13</t>
   </si>
   <si>
-    <t>$2,774,518</t>
-  </si>
-  <si>
     <t>-39.1%</t>
   </si>
   <si>
     <t>May 3–6</t>
   </si>
   <si>
-    <t>$4,557,813</t>
-  </si>
-  <si>
     <t>-37.6%</t>
   </si>
   <si>
     <t>April 26–29</t>
   </si>
   <si>
-    <t>$7,308,690</t>
-  </si>
-  <si>
     <t>+222.4%</t>
   </si>
   <si>
     <t>April 19–22</t>
   </si>
   <si>
-    <t>$2,266,713</t>
-  </si>
-  <si>
     <t>-0.3%</t>
   </si>
   <si>
@@ -983,42 +719,27 @@
     <t>April 12–15</t>
   </si>
   <si>
-    <t>$2,274,242</t>
-  </si>
-  <si>
     <t>-10.2%</t>
   </si>
   <si>
     <t>April 5–8</t>
   </si>
   <si>
-    <t>$2,532,019</t>
-  </si>
-  <si>
     <t>March 29–April 1</t>
   </si>
   <si>
-    <t>$3,127,159</t>
-  </si>
-  <si>
     <t>+36.5%</t>
   </si>
   <si>
     <t>March 22–25</t>
   </si>
   <si>
-    <t>$2,291,466</t>
-  </si>
-  <si>
     <t>Pacific Rim Uprising</t>
   </si>
   <si>
     <t>March 15–18</t>
   </si>
   <si>
-    <t>$2,217,978</t>
-  </si>
-  <si>
     <t>+1.0%</t>
   </si>
   <si>
@@ -1028,9 +749,6 @@
     <t>March 8–11</t>
   </si>
   <si>
-    <t>$2,197,103</t>
-  </si>
-  <si>
     <t>-9.5%</t>
   </si>
   <si>
@@ -1040,78 +758,51 @@
     <t>March 1–4</t>
   </si>
   <si>
-    <t>$2,428,069</t>
-  </si>
-  <si>
     <t>-19.6%</t>
   </si>
   <si>
     <t>February 22–25</t>
   </si>
   <si>
-    <t>$3,019,603</t>
-  </si>
-  <si>
     <t>-19.2%</t>
   </si>
   <si>
     <t>February 15–18</t>
   </si>
   <si>
-    <t>$3,738,777</t>
-  </si>
-  <si>
     <t>-20.9%</t>
   </si>
   <si>
     <t>February 8–11</t>
   </si>
   <si>
-    <t>$4,725,305</t>
-  </si>
-  <si>
     <t>+44.0%</t>
   </si>
   <si>
     <t>February 1–4</t>
   </si>
   <si>
-    <t>$3,281,115</t>
-  </si>
-  <si>
     <t>-18.0%</t>
   </si>
   <si>
     <t>January 25–28</t>
   </si>
   <si>
-    <t>$3,999,347</t>
-  </si>
-  <si>
     <t>+4.7%</t>
   </si>
   <si>
     <t>January 18–21</t>
   </si>
   <si>
-    <t>$3,820,929</t>
-  </si>
-  <si>
     <t>January 11–14</t>
   </si>
   <si>
-    <t>$5,462,772</t>
-  </si>
-  <si>
     <t>+46.7%</t>
   </si>
   <si>
     <t>January 4–7</t>
   </si>
   <si>
-    <t>$3,724,260</t>
-  </si>
-  <si>
     <t>+209.6%</t>
   </si>
   <si>
@@ -1124,150 +815,96 @@
     <t>December 28–30</t>
   </si>
   <si>
-    <t>$11,091,697</t>
-  </si>
-  <si>
     <t>+70.2%</t>
   </si>
   <si>
     <t>December 21–23</t>
   </si>
   <si>
-    <t>$6,518,813</t>
-  </si>
-  <si>
     <t>-24.0%</t>
   </si>
   <si>
     <t>December 14–16</t>
   </si>
   <si>
-    <t>$8,575,456</t>
-  </si>
-  <si>
     <t>December 7–9</t>
   </si>
   <si>
-    <t>$4,350,332</t>
-  </si>
-  <si>
     <t>Robin Hood (2018)</t>
   </si>
   <si>
     <t>November 30–December 2</t>
   </si>
   <si>
-    <t>$5,872,526</t>
-  </si>
-  <si>
     <t>November 23–25</t>
   </si>
   <si>
-    <t>$4,990,983</t>
-  </si>
-  <si>
     <t>-54.8%</t>
   </si>
   <si>
     <t>November 16–18</t>
   </si>
   <si>
-    <t>$11,038,394</t>
-  </si>
-  <si>
     <t>+74.7%</t>
   </si>
   <si>
     <t>November 9–11</t>
   </si>
   <si>
-    <t>$6,319,125</t>
-  </si>
-  <si>
     <t>-22.9%</t>
   </si>
   <si>
     <t>November 2–4</t>
   </si>
   <si>
-    <t>$8,195,153</t>
-  </si>
-  <si>
     <t>+64.5%</t>
   </si>
   <si>
     <t>October 26–28</t>
   </si>
   <si>
-    <t>$4,982,927</t>
-  </si>
-  <si>
     <t>October 19–21</t>
   </si>
   <si>
-    <t>$5,605,476</t>
-  </si>
-  <si>
     <t>-47.7%</t>
   </si>
   <si>
     <t>October 12–14</t>
   </si>
   <si>
-    <t>$10,718,779</t>
-  </si>
-  <si>
     <t>+46.2%</t>
   </si>
   <si>
     <t>October 5–7</t>
   </si>
   <si>
-    <t>$7,332,233</t>
-  </si>
-  <si>
     <t>+70.0%</t>
   </si>
   <si>
     <t>September 28–30</t>
   </si>
   <si>
-    <t>$4,313,902</t>
-  </si>
-  <si>
     <t>-2.1%</t>
   </si>
   <si>
     <t>September 21–23</t>
   </si>
   <si>
-    <t>$4,404,181</t>
-  </si>
-  <si>
     <t>September 14–16</t>
   </si>
   <si>
-    <t>$6,520,729</t>
-  </si>
-  <si>
     <t>-36.6%</t>
   </si>
   <si>
     <t>September 7–9</t>
   </si>
   <si>
-    <t>$10,282,069</t>
-  </si>
-  <si>
     <t>+142.7%</t>
   </si>
   <si>
     <t>August 31–September 2</t>
   </si>
   <si>
-    <t>$4,236,136</t>
-  </si>
-  <si>
     <t>-0.4%</t>
   </si>
   <si>
@@ -1277,36 +914,24 @@
     <t>August 24–26</t>
   </si>
   <si>
-    <t>$4,253,209</t>
-  </si>
-  <si>
     <t>-25.4%</t>
   </si>
   <si>
     <t>August 17–19</t>
   </si>
   <si>
-    <t>$5,697,837</t>
-  </si>
-  <si>
     <t>-6.4%</t>
   </si>
   <si>
     <t>August 10–12</t>
   </si>
   <si>
-    <t>$6,086,985</t>
-  </si>
-  <si>
     <t>-13.6%</t>
   </si>
   <si>
     <t>August 3–5</t>
   </si>
   <si>
-    <t>$7,042,406</t>
-  </si>
-  <si>
     <t>-30.7%</t>
   </si>
   <si>
@@ -1316,129 +941,84 @@
     <t>July 27–29</t>
   </si>
   <si>
-    <t>$10,166,789</t>
-  </si>
-  <si>
     <t>+0.3%</t>
   </si>
   <si>
     <t>July 20–22</t>
   </si>
   <si>
-    <t>$10,134,995</t>
-  </si>
-  <si>
     <t>-11.0%</t>
   </si>
   <si>
     <t>July 13–15</t>
   </si>
   <si>
-    <t>$11,386,690</t>
-  </si>
-  <si>
     <t>+8.6%</t>
   </si>
   <si>
     <t>July 6–8</t>
   </si>
   <si>
-    <t>$10,488,858</t>
-  </si>
-  <si>
     <t>June 29–July 1</t>
   </si>
   <si>
-    <t>$10,344,973</t>
-  </si>
-  <si>
     <t>+61.7%</t>
   </si>
   <si>
     <t>June 22–24</t>
   </si>
   <si>
-    <t>$6,398,839</t>
-  </si>
-  <si>
     <t>+32.3%</t>
   </si>
   <si>
     <t>June 15–17</t>
   </si>
   <si>
-    <t>$4,836,841</t>
-  </si>
-  <si>
     <t>-6.2%</t>
   </si>
   <si>
     <t>June 8–10</t>
   </si>
   <si>
-    <t>$5,158,731</t>
-  </si>
-  <si>
     <t>-38.3%</t>
   </si>
   <si>
     <t>June 1–3</t>
   </si>
   <si>
-    <t>$8,363,032</t>
-  </si>
-  <si>
     <t>+71.6%</t>
   </si>
   <si>
     <t>May 25–27</t>
   </si>
   <si>
-    <t>$4,873,755</t>
-  </si>
-  <si>
     <t>-58.1%</t>
   </si>
   <si>
     <t>May 18–20</t>
   </si>
   <si>
-    <t>$11,633,463</t>
-  </si>
-  <si>
     <t>May 11–13</t>
   </si>
   <si>
-    <t>$8,524,675</t>
-  </si>
-  <si>
     <t>-43.9%</t>
   </si>
   <si>
     <t>May 4–6</t>
   </si>
   <si>
-    <t>$15,190,017</t>
-  </si>
-  <si>
     <t>-33.4%</t>
   </si>
   <si>
     <t>April 27–29</t>
   </si>
   <si>
-    <t>$22,815,691</t>
-  </si>
-  <si>
     <t>+178.2%</t>
   </si>
   <si>
     <t>April 20–22</t>
   </si>
   <si>
-    <t>$8,200,160</t>
-  </si>
-  <si>
     <t>-12.9%</t>
   </si>
   <si>
@@ -1448,96 +1028,63 @@
     <t>April 13–15</t>
   </si>
   <si>
-    <t>$9,409,727</t>
-  </si>
-  <si>
     <t>April 6–8</t>
   </si>
   <si>
-    <t>$10,271,058</t>
-  </si>
-  <si>
     <t>-28.5%</t>
   </si>
   <si>
     <t>March 30–April 1</t>
   </si>
   <si>
-    <t>$14,363,216</t>
-  </si>
-  <si>
     <t>+120.7%</t>
   </si>
   <si>
     <t>March 23–25</t>
   </si>
   <si>
-    <t>$6,508,644</t>
-  </si>
-  <si>
     <t>-10.6%</t>
   </si>
   <si>
     <t>March 16–18</t>
   </si>
   <si>
-    <t>$7,282,932</t>
-  </si>
-  <si>
     <t>-19.9%</t>
   </si>
   <si>
     <t>March 9–11</t>
   </si>
   <si>
-    <t>$9,087,389</t>
-  </si>
-  <si>
     <t>+2.3%</t>
   </si>
   <si>
     <t>March 2–4</t>
   </si>
   <si>
-    <t>$8,883,213</t>
-  </si>
-  <si>
     <t>-11.8%</t>
   </si>
   <si>
     <t>February 23–25</t>
   </si>
   <si>
-    <t>$10,076,255</t>
-  </si>
-  <si>
     <t>-35.0%</t>
   </si>
   <si>
     <t>February 16–18</t>
   </si>
   <si>
-    <t>$15,498,276</t>
-  </si>
-  <si>
     <t>+68.0%</t>
   </si>
   <si>
     <t>February 9–11</t>
   </si>
   <si>
-    <t>$9,223,314</t>
-  </si>
-  <si>
     <t>+37.5%</t>
   </si>
   <si>
     <t>February 2–4</t>
   </si>
   <si>
-    <t>$6,709,393</t>
-  </si>
-  <si>
     <t>-29.7%</t>
   </si>
   <si>
@@ -1547,24 +1094,15 @@
     <t>January 26–28</t>
   </si>
   <si>
-    <t>$9,545,263</t>
-  </si>
-  <si>
     <t>-3.7%</t>
   </si>
   <si>
     <t>January 19–21</t>
   </si>
   <si>
-    <t>$9,907,828</t>
-  </si>
-  <si>
     <t>January 12–14</t>
   </si>
   <si>
-    <t>$13,387,306</t>
-  </si>
-  <si>
     <t>-7.0%</t>
   </si>
   <si>
@@ -1574,361 +1112,202 @@
     <t>January 5–7</t>
   </si>
   <si>
-    <t>$14,389,868</t>
-  </si>
-  <si>
     <t>+71.0%</t>
   </si>
   <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>$72,530,988</t>
-  </si>
-  <si>
     <t>-9.7%</t>
   </si>
   <si>
     <t>Kill Mobile</t>
   </si>
   <si>
-    <t>$80,346,411</t>
-  </si>
-  <si>
     <t>-1.5%</t>
   </si>
   <si>
-    <t>$81,561,019</t>
-  </si>
-  <si>
     <t>-24.7%</t>
   </si>
   <si>
-    <t>$108,364,430</t>
-  </si>
-  <si>
     <t>+78.6%</t>
   </si>
   <si>
-    <t>$60,664,219</t>
-  </si>
-  <si>
     <t>-28.0%</t>
   </si>
   <si>
     <t>A Cool Fish</t>
   </si>
   <si>
-    <t>$84,257,494</t>
-  </si>
-  <si>
     <t>-18.8%</t>
   </si>
   <si>
-    <t>$103,713,114</t>
-  </si>
-  <si>
     <t>-19.5%</t>
   </si>
   <si>
-    <t>$128,880,864</t>
-  </si>
-  <si>
     <t>+219.1%</t>
   </si>
   <si>
-    <t>$40,389,887</t>
-  </si>
-  <si>
     <t>-12.6%</t>
   </si>
   <si>
     <t>The Nutcracker and the Four Realms</t>
   </si>
   <si>
-    <t>$46,229,047</t>
-  </si>
-  <si>
     <t>+11.0%</t>
   </si>
   <si>
-    <t>$41,653,313</t>
-  </si>
-  <si>
     <t>-20.5%</t>
   </si>
   <si>
     <t>Project Gutenberg</t>
   </si>
   <si>
-    <t>$52,362,005</t>
-  </si>
-  <si>
     <t>-46.3%</t>
   </si>
   <si>
-    <t>$97,538,361</t>
-  </si>
-  <si>
-    <t>$53,927,178</t>
-  </si>
-  <si>
     <t>-16.8%</t>
   </si>
   <si>
     <t>Hello, Mrs. Money</t>
   </si>
   <si>
-    <t>$64,781,161</t>
-  </si>
-  <si>
     <t>+27.3%</t>
   </si>
   <si>
     <t>Golden Job</t>
   </si>
   <si>
-    <t>$50,897,605</t>
-  </si>
-  <si>
     <t>-6.6%</t>
   </si>
   <si>
     <t>L Storm</t>
   </si>
   <si>
-    <t>$54,487,857</t>
-  </si>
-  <si>
     <t>-46.6%</t>
   </si>
   <si>
-    <t>$102,059,488</t>
-  </si>
-  <si>
-    <t>$111,257,515</t>
-  </si>
-  <si>
     <t>-24.4%</t>
   </si>
   <si>
-    <t>$147,212,737</t>
-  </si>
-  <si>
     <t>-32.0%</t>
   </si>
   <si>
     <t>The Island (2018)</t>
   </si>
   <si>
-    <t>$216,532,104</t>
-  </si>
-  <si>
     <t>+93.4%</t>
   </si>
   <si>
-    <t>$111,938,786</t>
-  </si>
-  <si>
     <t>-41.7%</t>
   </si>
   <si>
     <t>Hello Mr. Billionaire</t>
   </si>
   <si>
-    <t>$191,840,136</t>
-  </si>
-  <si>
     <t>+101.1%</t>
   </si>
   <si>
-    <t>$95,390,075</t>
-  </si>
-  <si>
     <t>-27.8%</t>
   </si>
   <si>
     <t>Skyscraper</t>
   </si>
   <si>
-    <t>$132,179,793</t>
-  </si>
-  <si>
     <t>-27.2%</t>
   </si>
   <si>
     <t>Dying To Survive</t>
   </si>
   <si>
-    <t>$181,558,975</t>
-  </si>
-  <si>
     <t>+122.6%</t>
   </si>
   <si>
-    <t>$81,546,670</t>
-  </si>
-  <si>
     <t>+13.9%</t>
   </si>
   <si>
     <t>Animal World</t>
   </si>
   <si>
-    <t>$71,575,186</t>
-  </si>
-  <si>
     <t>-46.5%</t>
   </si>
   <si>
-    <t>$133,734,511</t>
-  </si>
-  <si>
     <t>+203.9%</t>
   </si>
   <si>
-    <t>$44,000,578</t>
-  </si>
-  <si>
     <t>-40.1%</t>
   </si>
   <si>
     <t>Toilet: Ek Prem Katha</t>
   </si>
   <si>
-    <t>$73,461,531</t>
-  </si>
-  <si>
     <t>+21.8%</t>
   </si>
   <si>
     <t>Doraemon the Movie: Nobita's Treasure Island</t>
   </si>
   <si>
-    <t>$60,299,436</t>
-  </si>
-  <si>
     <t>-46.2%</t>
   </si>
   <si>
     <t>How Long Will I Love You</t>
   </si>
   <si>
-    <t>$112,031,410</t>
-  </si>
-  <si>
     <t>-44.5%</t>
   </si>
   <si>
-    <t>$201,798,752</t>
-  </si>
-  <si>
     <t>+247.6%</t>
   </si>
   <si>
-    <t>$58,061,640</t>
-  </si>
-  <si>
     <t>-52.7%</t>
   </si>
   <si>
     <t>Us and Them</t>
   </si>
   <si>
-    <t>$122,612,220</t>
-  </si>
-  <si>
     <t>+116.1%</t>
   </si>
   <si>
-    <t>$56,741,598</t>
-  </si>
-  <si>
     <t>-31.4%</t>
   </si>
   <si>
-    <t>$82,734,613</t>
-  </si>
-  <si>
     <t>+14.3%</t>
   </si>
   <si>
-    <t>$72,374,486</t>
-  </si>
-  <si>
-    <t>$89,788,177</t>
-  </si>
-  <si>
     <t>-8.2%</t>
   </si>
   <si>
-    <t>$97,822,308</t>
-  </si>
-  <si>
     <t>+3.4%</t>
   </si>
   <si>
-    <t>$94,576,303</t>
-  </si>
-  <si>
-    <t>$128,056,926</t>
-  </si>
-  <si>
     <t>-16.4%</t>
   </si>
   <si>
-    <t>$153,207,505</t>
-  </si>
-  <si>
     <t>-37.2%</t>
   </si>
   <si>
     <t>Operation Red Sea</t>
   </si>
   <si>
-    <t>$244,125,101</t>
-  </si>
-  <si>
     <t>-51.8%</t>
   </si>
   <si>
-    <t>$506,419,995</t>
-  </si>
-  <si>
     <t>+1,377.0%</t>
   </si>
   <si>
     <t>Monster Hunt 2</t>
   </si>
   <si>
-    <t>$34,286,981</t>
-  </si>
-  <si>
     <t>Secret Superstar</t>
   </si>
   <si>
-    <t>$54,032,297</t>
-  </si>
-  <si>
     <t>-25.1%</t>
   </si>
   <si>
-    <t>$72,170,789</t>
-  </si>
-  <si>
-    <t>$94,948,063</t>
-  </si>
-  <si>
     <t>-4.3%</t>
   </si>
   <si>
-    <t>$99,161,243</t>
-  </si>
-  <si>
     <t>-27.5%</t>
-  </si>
-  <si>
-    <t>$136,841,334</t>
   </si>
   <si>
     <t>-25.5%</t>
@@ -2261,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,5130 +1691,4775 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>343404540</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
         <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>413471421</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>180550837</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>118024971</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>159339710</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>266370293</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>315931717</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>227237896</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>130</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>195580082</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>148039281</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1">
         <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>216847361</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1">
         <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="1">
+        <v>184035791</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
+        <v>253288138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1">
         <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>140036101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>140</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>125091481</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>135</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1">
         <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B18" s="1">
+        <v>148644756</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
         <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="1">
+        <v>161260520</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1">
         <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1">
         <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>151977097</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1">
         <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="B21" s="1">
+        <v>149963122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1">
         <v>117</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1">
         <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="B22" s="1">
+        <v>195009380</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1">
         <v>33</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="B23" s="1">
+        <v>226416589</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1">
         <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="B24" s="1">
+        <v>218510694</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <v>119</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
+      </c>
+      <c r="B25" s="1">
+        <v>247147898</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
         <v>124</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1">
         <v>30</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
+      </c>
+      <c r="B26" s="1">
+        <v>270640633</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1">
         <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1">
         <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="B27" s="1">
+        <v>254253741</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
         <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1">
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="B28" s="1">
+        <v>278429342</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1">
         <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1">
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="1">
+        <v>311656736</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1">
         <v>123</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1">
         <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="B30" s="1">
+        <v>407994609</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1">
         <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1">
         <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
+      </c>
+      <c r="B31" s="1">
+        <v>401428059</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1">
         <v>124</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1">
         <v>24</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+      <c r="B32" s="1">
+        <v>181013776</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1">
         <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F32" s="1">
         <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="1">
+        <v>157928172</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1">
         <v>120</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1">
         <v>22</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="B34" s="1">
+        <v>276354504</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1">
         <v>130</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1">
         <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="B35" s="1">
+        <v>283026511</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1">
         <v>131</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1">
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="B36" s="1">
+        <v>182747452</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1">
         <v>145</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F36" s="1">
         <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="B37" s="1">
+        <v>224419461</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1">
         <v>132</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F37" s="1">
         <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="B38" s="1">
+        <v>416288992</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D38" s="1">
         <v>135</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
         <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
+      </c>
+      <c r="B39" s="1">
+        <v>161006014</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1">
         <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F39" s="1">
         <v>16</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
+      </c>
+      <c r="B40" s="1">
+        <v>198040226</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
         <v>142</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F40" s="1">
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
+      </c>
+      <c r="B41" s="1">
+        <v>215954885</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1">
         <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F41" s="1">
         <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="B42" s="1">
+        <v>205105965</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D42" s="1">
         <v>120</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F42" s="1">
         <v>13</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>123</v>
+      </c>
+      <c r="B43" s="1">
+        <v>200840684</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1">
         <v>120</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="F43" s="1">
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
+      </c>
+      <c r="B44" s="1">
+        <v>182378612</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1">
         <v>124</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F44" s="1">
         <v>11</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
+      </c>
+      <c r="B45" s="1">
+        <v>197174196</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1">
         <v>119</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F45" s="1">
         <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
+      </c>
+      <c r="B46" s="1">
+        <v>198504528</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1">
         <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F46" s="1">
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+      <c r="B47" s="1">
+        <v>255705696</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1">
         <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F47" s="1">
         <v>8</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
+      </c>
+      <c r="B48" s="1">
+        <v>419338854</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1">
         <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1">
         <v>7</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="1">
+        <v>201404371</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D49" s="1">
         <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1">
         <v>6</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
+      </c>
+      <c r="B50" s="1">
+        <v>129767460</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D50" s="1">
         <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>193</v>
+        <v>144</v>
+      </c>
+      <c r="B51" s="1">
+        <v>187462868</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1">
         <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F51" s="1">
         <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>147</v>
+      </c>
+      <c r="B52" s="1">
+        <v>184045150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D52" s="1">
         <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>150</v>
+      </c>
+      <c r="B53" s="1">
+        <v>234079943</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="D53" s="1">
         <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>204</v>
+        <v>152</v>
+      </c>
+      <c r="B54" s="1">
+        <v>220765209</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="D54" s="1">
         <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>208</v>
+        <v>155</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1607933</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="D56" s="1">
         <v>51</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="F56" s="1">
         <v>52</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1002133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D57" s="1">
         <v>58</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1">
         <v>51</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>215</v>
+        <v>160</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1583751</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="D58" s="1">
         <v>66</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1">
         <v>50</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>218</v>
+        <v>162</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1050189</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="D59" s="1">
         <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1">
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1604585</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="1">
+        <v>58</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1">
+        <v>48</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>221</v>
+        <v>166</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1301667</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>224</v>
+        <v>168</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2141512</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="F62" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>227</v>
+        <v>171</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1439324</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1678912</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="D64" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>233</v>
+        <v>174</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1217108</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="D65" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F65" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1038574</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="1">
+        <v>75</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="1">
+        <v>42</v>
+      </c>
       <c r="G66" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>236</v>
+        <v>179</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1662754</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="D67" s="1">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="F67" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2051423</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="F68" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>183</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1439500</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D69" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="F69" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>246</v>
+        <v>186</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1372920</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D70" s="1">
         <v>57</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="F70" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2071789</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="1">
+        <v>46</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="1">
+        <v>37</v>
+      </c>
       <c r="G71" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>249</v>
+        <v>190</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2524481</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="D72" s="1">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="F72" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D73" s="1">
-        <v>57</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" s="1">
-        <v>38</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>256</v>
+        <v>192</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1731799</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="D74" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="F74" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>259</v>
+        <v>194</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2501645</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="D75" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="F75" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3211658</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="1">
+        <v>63</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" s="1">
+        <v>33</v>
+      </c>
       <c r="G76" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3233726</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="1">
+        <v>66</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="1">
+        <v>32</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" s="1">
-        <v>68</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" s="1">
-        <v>35</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>265</v>
+        <v>199</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3012130</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="D78" s="1">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="F78" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>202</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5857197</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D79" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="F79" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>204</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6558204</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="D80" s="1">
+        <v>61</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="1">
+        <v>29</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5505784</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="1">
         <v>66</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F80" s="1">
-        <v>32</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D81" s="1">
-        <v>57</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="F81" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5063540</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="1">
+        <v>71</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="1">
+        <v>27</v>
+      </c>
       <c r="G82" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>277</v>
+        <v>211</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3467343</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D83" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="F83" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>280</v>
+        <v>213</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4956788</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="D84" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="F84" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>283</v>
+        <v>215</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3703330</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="D85" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>286</v>
+        <v>217</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2155647</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="D86" s="1">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="F86" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3156047</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="1">
+        <v>76</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="1">
+        <v>21</v>
+      </c>
       <c r="G87" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>290</v>
+        <v>219</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3226681</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="D88" s="1">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="F88" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>293</v>
+        <v>221</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2774518</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="D89" s="1">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="F89" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>296</v>
+        <v>223</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4557813</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="D90" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F90" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" s="1">
+        <v>7308690</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" s="1">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="1">
+        <v>17</v>
+      </c>
       <c r="G91" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>299</v>
+        <v>227</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2266713</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="D92" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="F92" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>301</v>
+        <v>230</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2274242</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="D93" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="F93" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>303</v>
+        <v>232</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2532019</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="D94" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F94" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>306</v>
+        <v>233</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3127159</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="D95" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F95" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>309</v>
+        <v>235</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2291466</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="D96" s="1">
+        <v>84</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96" s="1">
+        <v>12</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2217978</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" s="1">
         <v>73</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" s="1">
-        <v>18</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="1"/>
+      <c r="E97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="1">
+        <v>11</v>
+      </c>
       <c r="G97" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>240</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2197103</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="D98" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F98" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>315</v>
+        <v>243</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2428069</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="D99" s="1">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="F99" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>319</v>
+        <v>245</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3019603</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="D100" s="1">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="F100" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>322</v>
+        <v>247</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3738777</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D101" s="1">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F101" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4725305</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="1">
+        <v>57</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="1">
+        <v>6</v>
+      </c>
       <c r="G102" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3281115</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="D103" s="1">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="F103" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>327</v>
+        <v>253</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3999347</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="D104" s="1">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="F104" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3820929</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="D105" s="1">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="F105" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>334</v>
+        <v>256</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5462772</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="D106" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="F106" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>338</v>
+        <v>258</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3724260</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="D107" s="1">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="F107" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>341</v>
+        <v>262</v>
+      </c>
+      <c r="B109" s="1">
+        <v>11091697</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="D109" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>344</v>
+        <v>264</v>
+      </c>
+      <c r="B110" s="1">
+        <v>6518813</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="D110" s="1">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>347</v>
+        <v>266</v>
+      </c>
+      <c r="B111" s="1">
+        <v>8575456</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="D111" s="1">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>350</v>
+        <v>267</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4350332</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="D112" s="1">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="F112" s="1">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5872526</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="1">
+        <v>23</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" s="1">
+        <v>48</v>
+      </c>
       <c r="G113" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>353</v>
+        <v>270</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4990983</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="D114" s="1">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="F114" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>356</v>
+        <v>272</v>
+      </c>
+      <c r="B115" s="1">
+        <v>11038394</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D115" s="1">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="F115" s="1">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B116" s="1">
+        <v>6319125</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="D116" s="1">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>336</v>
+        <v>30</v>
       </c>
       <c r="F116" s="1">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>361</v>
+        <v>276</v>
+      </c>
+      <c r="B117" s="1">
+        <v>8195153</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D117" s="1">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="1">
+        <v>44</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4982927</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="1">
+        <v>24</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="1">
+        <v>43</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>366</v>
+        <v>279</v>
+      </c>
+      <c r="B119" s="1">
+        <v>5605476</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="D119" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="F119" s="1">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>369</v>
+        <v>281</v>
+      </c>
+      <c r="B120" s="1">
+        <v>10718779</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D120" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="F120" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>372</v>
+        <v>283</v>
+      </c>
+      <c r="B121" s="1">
+        <v>7332233</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="D121" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="F121" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>374</v>
+        <v>285</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4313902</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="D122" s="1">
+        <v>25</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="1">
+        <v>39</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4404181</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" s="1">
         <v>23</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F122" s="1">
-        <v>49</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="1"/>
+      <c r="E123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123" s="1">
+        <v>38</v>
+      </c>
       <c r="G123" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>377</v>
+        <v>288</v>
+      </c>
+      <c r="B124" s="1">
+        <v>6520729</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D124" s="1">
+        <v>21</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F124" s="1">
+        <v>37</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10282069</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" s="1">
         <v>23</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F124" s="1">
-        <v>48</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D125" s="1">
-        <v>21</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="F125" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>382</v>
+        <v>292</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4236136</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="D126" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="F126" s="1">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>385</v>
+        <v>295</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4253209</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="D127" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F127" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>388</v>
+        <v>297</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5697837</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>389</v>
+        <v>298</v>
       </c>
       <c r="D128" s="1">
+        <v>20</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" s="1">
+        <v>33</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129" s="1">
+        <v>6086985</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D129" s="1">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F129" s="1">
+        <v>32</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B130" s="1">
+        <v>7042406</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D130" s="1">
         <v>16</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F128" s="1">
-        <v>44</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D130" s="1">
-        <v>24</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="F130" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>393</v>
+        <v>304</v>
+      </c>
+      <c r="B131" s="1">
+        <v>10166789</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="D131" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F131" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>396</v>
+        <v>306</v>
+      </c>
+      <c r="B132" s="1">
+        <v>10134995</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="D132" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F132" s="1">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>399</v>
+        <v>308</v>
+      </c>
+      <c r="B133" s="1">
+        <v>11386690</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="D133" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F133" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" s="1">
+        <v>10488858</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" s="1">
+        <v>30</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F134" s="1">
+        <v>27</v>
+      </c>
       <c r="G134" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>402</v>
+        <v>311</v>
+      </c>
+      <c r="B135" s="1">
+        <v>10344973</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="D135" s="1">
+        <v>19</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F135" s="1">
+        <v>26</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B136" s="1">
+        <v>6398839</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" s="1">
+        <v>19</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F136" s="1">
         <v>25</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F135" s="1">
-        <v>39</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D136" s="1">
-        <v>23</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F136" s="1">
-        <v>38</v>
-      </c>
       <c r="G136" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>407</v>
+        <v>315</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4836841</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="D137" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="F137" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>410</v>
+        <v>317</v>
+      </c>
+      <c r="B138" s="1">
+        <v>5158731</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="D138" s="1">
+        <v>20</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138" s="1">
         <v>23</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F138" s="1">
-        <v>36</v>
-      </c>
       <c r="G138" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B139" s="1">
+        <v>8363032</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" s="1">
+        <v>32</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" s="1">
+        <v>22</v>
+      </c>
       <c r="G139" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>413</v>
+        <v>321</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4873755</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="D140" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>415</v>
+        <v>102</v>
       </c>
       <c r="F140" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>417</v>
+        <v>323</v>
+      </c>
+      <c r="B141" s="1">
+        <v>11633463</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="D141" s="1">
+        <v>19</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F141" s="1">
         <v>20</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F141" s="1">
-        <v>34</v>
-      </c>
       <c r="G141" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>420</v>
+        <v>324</v>
+      </c>
+      <c r="B142" s="1">
+        <v>8524675</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>421</v>
+        <v>325</v>
       </c>
       <c r="D142" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F142" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>423</v>
+        <v>326</v>
+      </c>
+      <c r="B143" s="1">
+        <v>15190017</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>424</v>
+        <v>327</v>
       </c>
       <c r="D143" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F143" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>426</v>
+        <v>328</v>
+      </c>
+      <c r="B144" s="1">
+        <v>22815691</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="D144" s="1">
+        <v>24</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F144" s="1">
+        <v>17</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B145" s="1">
+        <v>8200160</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D145" s="1">
+        <v>22</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F145" s="1">
         <v>16</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F144" s="1">
-        <v>31</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>430</v>
+        <v>333</v>
+      </c>
+      <c r="B146" s="1">
+        <v>9409727</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="D146" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="F146" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>433</v>
+        <v>334</v>
+      </c>
+      <c r="B147" s="1">
+        <v>10271058</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="D147" s="1">
         <v>23</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="F147" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>436</v>
+        <v>336</v>
+      </c>
+      <c r="B148" s="1">
+        <v>14363216</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="D148" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="F148" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>439</v>
+        <v>338</v>
+      </c>
+      <c r="B149" s="1">
+        <v>6508644</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="D149" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="F149" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B150" s="1">
+        <v>7282932</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D150" s="1">
+        <v>21</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F150" s="1">
+        <v>11</v>
+      </c>
       <c r="G150" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>441</v>
+        <v>342</v>
+      </c>
+      <c r="B151" s="1">
+        <v>9087389</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="D151" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F151" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>444</v>
+        <v>344</v>
+      </c>
+      <c r="B152" s="1">
+        <v>8883213</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="D152" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="F152" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>447</v>
+        <v>346</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10076255</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="D153" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="F153" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>450</v>
+        <v>348</v>
+      </c>
+      <c r="B154" s="1">
+        <v>15498276</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="D154" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F154" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
+      </c>
+      <c r="B155" s="1">
+        <v>9223314</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>454</v>
+        <v>351</v>
       </c>
       <c r="D155" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F155" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156" s="1">
+        <v>6709393</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D156" s="1">
+        <v>24</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F156" s="1">
+        <v>5</v>
+      </c>
       <c r="G156" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>456</v>
+        <v>355</v>
+      </c>
+      <c r="B157" s="1">
+        <v>9545263</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="D157" s="1">
         <v>21</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="F157" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>459</v>
+        <v>357</v>
+      </c>
+      <c r="B158" s="1">
+        <v>9907828</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>325</v>
+        <v>148</v>
       </c>
       <c r="D158" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="F158" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>461</v>
+        <v>358</v>
+      </c>
+      <c r="B159" s="1">
+        <v>13387306</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>462</v>
+        <v>359</v>
       </c>
       <c r="D159" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="F159" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>464</v>
+        <v>361</v>
+      </c>
+      <c r="B160" s="1">
+        <v>14389868</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>465</v>
+        <v>362</v>
       </c>
       <c r="D160" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="F160" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" s="1">
+        <v>72530988</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D161" s="1">
+        <v>54</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F161" s="1">
+        <v>52</v>
+      </c>
       <c r="G161" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>467</v>
+        <v>264</v>
+      </c>
+      <c r="B162" s="1">
+        <v>80346411</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>468</v>
+        <v>366</v>
       </c>
       <c r="D162" s="1">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F162" s="1">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>470</v>
+        <v>266</v>
+      </c>
+      <c r="B163" s="1">
+        <v>81561019</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
       <c r="D163" s="1">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>472</v>
+        <v>8</v>
       </c>
       <c r="F163" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>474</v>
+        <v>267</v>
+      </c>
+      <c r="B164" s="1">
+        <v>108364430</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="D164" s="1">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>472</v>
+        <v>8</v>
       </c>
       <c r="F164" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>476</v>
+        <v>269</v>
+      </c>
+      <c r="B165" s="1">
+        <v>60664219</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="D165" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="F165" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B166" s="1">
+        <v>84257494</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D166" s="1">
+        <v>48</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F166" s="1">
+        <v>47</v>
+      </c>
       <c r="G166" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>479</v>
+        <v>272</v>
+      </c>
+      <c r="B167" s="1">
+        <v>103713114</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>480</v>
+        <v>372</v>
       </c>
       <c r="D167" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>472</v>
+        <v>178</v>
       </c>
       <c r="F167" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>482</v>
+        <v>274</v>
+      </c>
+      <c r="B168" s="1">
+        <v>128880864</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>483</v>
+        <v>373</v>
       </c>
       <c r="D168" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="F168" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>485</v>
+        <v>276</v>
+      </c>
+      <c r="B169" s="1">
+        <v>40389887</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>486</v>
+        <v>374</v>
       </c>
       <c r="D169" s="1">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="F169" s="1">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>488</v>
+        <v>278</v>
+      </c>
+      <c r="B170" s="1">
+        <v>46229047</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>489</v>
+        <v>376</v>
       </c>
       <c r="D170" s="1">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="F170" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>491</v>
+        <v>279</v>
+      </c>
+      <c r="B171" s="1">
+        <v>41653313</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>492</v>
+        <v>377</v>
       </c>
       <c r="D171" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="F171" s="1">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B172" s="1">
+        <v>52362005</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D172" s="1">
+        <v>41</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F172" s="1">
+        <v>41</v>
+      </c>
       <c r="G172" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>494</v>
+        <v>283</v>
+      </c>
+      <c r="B173" s="1">
+        <v>97538361</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="D173" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="F173" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>497</v>
+        <v>285</v>
+      </c>
+      <c r="B174" s="1">
+        <v>53927178</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>498</v>
+        <v>380</v>
       </c>
       <c r="D174" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="F174" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>500</v>
+        <v>287</v>
+      </c>
+      <c r="B175" s="1">
+        <v>64781161</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>501</v>
+        <v>382</v>
       </c>
       <c r="D175" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>186</v>
+        <v>383</v>
       </c>
       <c r="F175" s="1">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>503</v>
+        <v>288</v>
+      </c>
+      <c r="B176" s="1">
+        <v>50897605</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="D176" s="1">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F176" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B177" s="1">
+        <v>54487857</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D177" s="1">
+        <v>44</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F177" s="1">
+        <v>36</v>
+      </c>
       <c r="G177" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>507</v>
+        <v>292</v>
+      </c>
+      <c r="B178" s="1">
+        <v>102059488</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>508</v>
+        <v>115</v>
       </c>
       <c r="D178" s="1">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="F178" s="1">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>510</v>
+        <v>295</v>
+      </c>
+      <c r="B179" s="1">
+        <v>111257515</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>197</v>
+        <v>387</v>
       </c>
       <c r="D179" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="F179" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>512</v>
+        <v>297</v>
+      </c>
+      <c r="B180" s="1">
+        <v>147212737</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>513</v>
+        <v>388</v>
       </c>
       <c r="D180" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="F180" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>516</v>
+        <v>299</v>
+      </c>
+      <c r="B181" s="1">
+        <v>216532104</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>517</v>
+        <v>390</v>
       </c>
       <c r="D181" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F181" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E182" s="2"/>
+      <c r="A182" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B182" s="1">
+        <v>111938786</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D182" s="1">
+        <v>30</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F182" s="1">
+        <v>31</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>519</v>
+        <v>304</v>
+      </c>
+      <c r="B183" s="1">
+        <v>191840136</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>520</v>
+        <v>393</v>
       </c>
       <c r="D183" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="F183" s="1">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>522</v>
+        <v>306</v>
+      </c>
+      <c r="B184" s="1">
+        <v>95390075</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>523</v>
+        <v>394</v>
       </c>
       <c r="D184" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>16</v>
+        <v>395</v>
       </c>
       <c r="F184" s="1">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>524</v>
+        <v>308</v>
+      </c>
+      <c r="B185" s="1">
+        <v>132179793</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>525</v>
+        <v>396</v>
       </c>
       <c r="D185" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="F185" s="1">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>526</v>
+        <v>310</v>
+      </c>
+      <c r="B186" s="1">
+        <v>181558975</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>527</v>
+        <v>398</v>
       </c>
       <c r="D186" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="F186" s="1">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B187" s="1">
+        <v>81546670</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D187" s="1">
+        <v>41</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F187" s="1">
+        <v>26</v>
+      </c>
       <c r="G187" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>528</v>
+        <v>313</v>
+      </c>
+      <c r="B188" s="1">
+        <v>71575186</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>529</v>
+        <v>401</v>
       </c>
       <c r="D188" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="F188" s="1">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>531</v>
+        <v>315</v>
+      </c>
+      <c r="B189" s="1">
+        <v>133734511</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>532</v>
+        <v>402</v>
       </c>
       <c r="D189" s="1">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="F189" s="1">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>533</v>
+        <v>317</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44000578</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>534</v>
+        <v>403</v>
       </c>
       <c r="D190" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>241</v>
+        <v>404</v>
       </c>
       <c r="F190" s="1">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>535</v>
+        <v>319</v>
+      </c>
+      <c r="B191" s="1">
+        <v>73461531</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="D191" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>241</v>
+        <v>406</v>
       </c>
       <c r="F191" s="1">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>537</v>
+        <v>321</v>
+      </c>
+      <c r="B192" s="1">
+        <v>60299436</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>538</v>
+        <v>407</v>
       </c>
       <c r="D192" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>539</v>
+        <v>408</v>
       </c>
       <c r="F192" s="1">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B193" s="1">
+        <v>112031410</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D193" s="1">
+        <v>36</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F193" s="1">
+        <v>20</v>
+      </c>
       <c r="G193" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>540</v>
+        <v>324</v>
+      </c>
+      <c r="B194" s="1">
+        <v>201798752</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D194" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F194" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>542</v>
+        <v>326</v>
+      </c>
+      <c r="B195" s="1">
+        <v>58061640</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="D195" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>544</v>
+        <v>412</v>
       </c>
       <c r="F195" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>545</v>
+        <v>328</v>
+      </c>
+      <c r="B196" s="1">
+        <v>122612220</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>546</v>
+        <v>413</v>
       </c>
       <c r="D196" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>544</v>
+        <v>412</v>
       </c>
       <c r="F196" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>547</v>
+        <v>330</v>
+      </c>
+      <c r="B197" s="1">
+        <v>56741598</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="D197" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>544</v>
+        <v>229</v>
       </c>
       <c r="F197" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B198" s="1">
+        <v>82734613</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D198" s="1">
+        <v>37</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F198" s="1">
+        <v>15</v>
+      </c>
       <c r="G198" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>548</v>
+        <v>334</v>
+      </c>
+      <c r="B199" s="1">
+        <v>72374486</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>549</v>
+        <v>111</v>
       </c>
       <c r="D199" s="1">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>550</v>
+        <v>122</v>
       </c>
       <c r="F199" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>551</v>
+        <v>336</v>
+      </c>
+      <c r="B200" s="1">
+        <v>89788177</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>552</v>
+        <v>416</v>
       </c>
       <c r="D200" s="1">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>553</v>
+        <v>122</v>
       </c>
       <c r="F200" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>554</v>
+        <v>338</v>
+      </c>
+      <c r="B201" s="1">
+        <v>97822308</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="D201" s="1">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>556</v>
+        <v>236</v>
       </c>
       <c r="F201" s="1">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>557</v>
+        <v>340</v>
+      </c>
+      <c r="B202" s="1">
+        <v>94576303</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>558</v>
+        <v>59</v>
       </c>
       <c r="D202" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>428</v>
+        <v>239</v>
       </c>
       <c r="F202" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B203" s="1">
+        <v>128056926</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D203" s="1">
+        <v>25</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F203" s="1">
+        <v>10</v>
+      </c>
       <c r="G203" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>559</v>
+        <v>344</v>
+      </c>
+      <c r="B204" s="1">
+        <v>153207505</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>153</v>
+        <v>419</v>
       </c>
       <c r="D204" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F204" s="1">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>560</v>
+        <v>346</v>
+      </c>
+      <c r="B205" s="1">
+        <v>244125101</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>561</v>
+        <v>421</v>
       </c>
       <c r="D205" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>108</v>
+        <v>420</v>
       </c>
       <c r="F205" s="1">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>562</v>
+        <v>348</v>
+      </c>
+      <c r="B206" s="1">
+        <v>506419995</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>563</v>
+        <v>422</v>
       </c>
       <c r="D206" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>564</v>
+        <v>423</v>
       </c>
       <c r="F206" s="1">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>565</v>
+        <v>350</v>
+      </c>
+      <c r="B207" s="1">
+        <v>34286981</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>566</v>
+        <v>32</v>
       </c>
       <c r="D207" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>564</v>
+        <v>424</v>
       </c>
       <c r="F207" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B208" s="1">
+        <v>54032297</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="D208" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>569</v>
+        <v>424</v>
       </c>
       <c r="F208" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B209" s="1">
+        <v>72170789</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D209" s="1">
+        <v>40</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F209" s="1">
+        <v>4</v>
+      </c>
       <c r="G209" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B210" s="1">
+        <v>94948063</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D210" s="1">
+        <v>38</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F210" s="1">
+        <v>3</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B211" s="1">
+        <v>99161243</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D211" s="1">
+        <v>35</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F211" s="1">
+        <v>2</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B212" s="1">
+        <v>136841334</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D212" s="1">
+        <v>33</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D210" s="1">
-        <v>31</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F210" s="1">
-        <v>30</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D211" s="1">
-        <v>31</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F211" s="1">
-        <v>29</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D212" s="1">
-        <v>43</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="F212" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D213" s="1">
-        <v>33</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F213" s="1">
-        <v>27</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D215" s="1">
-        <v>41</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F215" s="1">
-        <v>26</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D216" s="1">
-        <v>37</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F216" s="1">
-        <v>25</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D217" s="1">
-        <v>35</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F217" s="1">
-        <v>24</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D218" s="1">
-        <v>33</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F218" s="1">
-        <v>23</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D219" s="1">
-        <v>30</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F219" s="1">
-        <v>22</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D221" s="1">
-        <v>34</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F221" s="1">
-        <v>21</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D222" s="1">
-        <v>36</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F222" s="1">
-        <v>20</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D223" s="1">
-        <v>33</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F223" s="1">
-        <v>19</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D224" s="1">
-        <v>34</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F224" s="1">
-        <v>18</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D226" s="1">
-        <v>43</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F226" s="1">
-        <v>17</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D227" s="1">
-        <v>34</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F227" s="1">
-        <v>16</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D228" s="1">
-        <v>37</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F228" s="1">
-        <v>15</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D229" s="1">
-        <v>36</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F229" s="1">
-        <v>14</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D231" s="1">
-        <v>37</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F231" s="1">
-        <v>13</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D232" s="1">
-        <v>40</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F232" s="1">
-        <v>12</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D233" s="1">
-        <v>29</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F233" s="1">
-        <v>11</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D234" s="1">
-        <v>25</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F234" s="1">
-        <v>10</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D235" s="1">
-        <v>26</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F235" s="1">
-        <v>9</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D237" s="1">
-        <v>34</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F237" s="1">
-        <v>8</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D238" s="1">
-        <v>30</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F238" s="1">
-        <v>7</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D239" s="1">
-        <v>41</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F239" s="1">
-        <v>6</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D240" s="1">
-        <v>39</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F240" s="1">
-        <v>5</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D242" s="1">
-        <v>40</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F242" s="1">
-        <v>4</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D243" s="1">
-        <v>38</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F243" s="1">
-        <v>3</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D244" s="1">
-        <v>35</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F244" s="1">
-        <v>2</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D245" s="1">
-        <v>33</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F245" s="1">
-        <v>1</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
